--- a/SPAN/SPANttl.xlsx
+++ b/SPAN/SPANttl.xlsx
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>

--- a/SPAN/SPANttl.xlsx
+++ b/SPAN/SPANttl.xlsx
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>

--- a/SPAN/SPANttl.xlsx
+++ b/SPAN/SPANttl.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>339</v>
+        <v>146</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
@@ -566,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -642,12 +642,31 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SPAN 260</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>35</v>
       </c>
     </row>

--- a/SPAN/SPANttl.xlsx
+++ b/SPAN/SPANttl.xlsx
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
